--- a/UF2/1_teatre/joc_de_proves.xlsx
+++ b/UF2/1_teatre/joc_de_proves.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12855"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="23256" windowHeight="12852"/>
   </bookViews>
   <sheets>
     <sheet name="Full1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Entrades</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Excepció</t>
+  </si>
+  <si>
+    <t>assertEquals(0, t.getPreu(1, 2), 0.009);</t>
   </si>
 </sst>
 </file>
@@ -587,18 +590,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G47"/>
+  <dimension ref="A2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +614,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -624,7 +627,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>-1</v>
       </c>
@@ -635,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -646,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -657,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -668,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -678,8 +681,15 @@
       <c r="C8" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="str">
+        <f>"assertEquals("&amp;C8&amp;", t.getPreu("&amp;A8&amp;","&amp;B8&amp;"),0.009);"</f>
+        <v>assertEquals(0, t.getPreu(1,2),0.009);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -690,8 +700,12 @@
         <f>60*0.75</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="str">
+        <f t="shared" ref="H9:H47" si="0">"assertEquals("&amp;C9&amp;", t.getPreu("&amp;A9&amp;","&amp;B9&amp;"),0.009);"</f>
+        <v>assertEquals(45, t.getPreu(1,8),0.009);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -701,8 +715,12 @@
       <c r="C10" s="12">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(60, t.getPreu(1,40),0.009);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -712,8 +730,12 @@
       <c r="C11" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(30, t.getPreu(1,65),0.009);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -724,8 +746,12 @@
         <f>C9</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(45, t.getPreu(1,4),0.009);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -736,8 +762,12 @@
         <f>C10</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(60, t.getPreu(1,12),0.009);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -748,8 +778,12 @@
         <f>C11</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(30, t.getPreu(1,60),0.009);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -759,8 +793,12 @@
       <c r="C15" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(0, t.getPreu(1,3),0.009);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -771,8 +809,12 @@
         <f>C9</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(45, t.getPreu(1,11),0.009);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" s="13">
         <v>1</v>
       </c>
@@ -783,8 +825,12 @@
         <f>C10</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(60, t.getPreu(1,59),0.009);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="16">
         <v>2</v>
       </c>
@@ -794,8 +840,12 @@
       <c r="C18" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(0, t.getPreu(2,2),0.009);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="19">
         <v>2</v>
       </c>
@@ -806,8 +856,16 @@
         <f>50*0.75</f>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="F19" t="str">
+        <f>TEXT(C19,"0,00")</f>
+        <v>37,50</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(37,5, t.getPreu(2,8),0.009);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="19">
         <v>2</v>
       </c>
@@ -817,8 +875,12 @@
       <c r="C20" s="21">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(50, t.getPreu(2,40),0.009);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="19">
         <v>2</v>
       </c>
@@ -829,8 +891,12 @@
         <f>50*0.2</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(10, t.getPreu(2,65),0.009);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="19">
         <v>2</v>
       </c>
@@ -841,8 +907,12 @@
         <f>C19</f>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(37,5, t.getPreu(2,4),0.009);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="19">
         <v>2</v>
       </c>
@@ -853,8 +923,12 @@
         <f>C20</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(50, t.getPreu(2,12),0.009);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="19">
         <v>2</v>
       </c>
@@ -865,8 +939,12 @@
         <f>C21</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(10, t.getPreu(2,60),0.009);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="19">
         <v>2</v>
       </c>
@@ -876,8 +954,12 @@
       <c r="C25" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(0, t.getPreu(2,3),0.009);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="19">
         <v>2</v>
       </c>
@@ -888,8 +970,12 @@
         <f>C19</f>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(37,5, t.getPreu(2,11),0.009);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" s="22">
         <v>2</v>
       </c>
@@ -900,8 +986,12 @@
         <f>C20</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(50, t.getPreu(2,59),0.009);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="25">
         <v>3</v>
       </c>
@@ -911,8 +1001,12 @@
       <c r="C28" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(0, t.getPreu(3,2),0.009);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="28">
         <v>3</v>
       </c>
@@ -923,8 +1017,12 @@
         <f>40*0.75</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(30, t.getPreu(3,8),0.009);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="28">
         <v>3</v>
       </c>
@@ -934,8 +1032,12 @@
       <c r="C30" s="30">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(40, t.getPreu(3,40),0.009);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="28">
         <v>3</v>
       </c>
@@ -946,8 +1048,12 @@
         <f>40*0.2</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(8, t.getPreu(3,65),0.009);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="28">
         <v>3</v>
       </c>
@@ -958,8 +1064,12 @@
         <f>C29</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(30, t.getPreu(3,4),0.009);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="28">
         <v>3</v>
       </c>
@@ -970,8 +1080,12 @@
         <f>C30</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(40, t.getPreu(3,12),0.009);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="28">
         <v>3</v>
       </c>
@@ -982,8 +1096,12 @@
         <f>C31</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(8, t.getPreu(3,60),0.009);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="28">
         <v>3</v>
       </c>
@@ -993,8 +1111,12 @@
       <c r="C35" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(0, t.getPreu(3,3),0.009);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="28">
         <v>3</v>
       </c>
@@ -1005,8 +1127,12 @@
         <f>C29</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(30, t.getPreu(3,11),0.009);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1">
       <c r="A37" s="31">
         <v>3</v>
       </c>
@@ -1017,8 +1143,12 @@
         <f>C30</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(40, t.getPreu(3,59),0.009);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="8">
         <v>4</v>
       </c>
@@ -1028,8 +1158,12 @@
       <c r="C38" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(0, t.getPreu(4,2),0.009);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="11">
         <v>4</v>
       </c>
@@ -1040,8 +1174,12 @@
         <f>30*0.75</f>
         <v>22.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(22,5, t.getPreu(4,8),0.009);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="11">
         <v>4</v>
       </c>
@@ -1051,8 +1189,12 @@
       <c r="C40" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(30, t.getPreu(4,40),0.009);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="11">
         <v>4</v>
       </c>
@@ -1063,8 +1205,12 @@
         <f>30*0.2</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(6, t.getPreu(4,65),0.009);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="11">
         <v>4</v>
       </c>
@@ -1075,8 +1221,12 @@
         <f>C39</f>
         <v>22.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(22,5, t.getPreu(4,4),0.009);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="11">
         <v>4</v>
       </c>
@@ -1087,8 +1237,12 @@
         <f>C40</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(30, t.getPreu(4,12),0.009);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="11">
         <v>4</v>
       </c>
@@ -1099,8 +1253,12 @@
         <f>C41</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(6, t.getPreu(4,60),0.009);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="11">
         <v>4</v>
       </c>
@@ -1110,8 +1268,12 @@
       <c r="C45" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(0, t.getPreu(4,3),0.009);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="11">
         <v>4</v>
       </c>
@@ -1122,8 +1284,12 @@
         <f>C39</f>
         <v>22.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(22,5, t.getPreu(4,11),0.009);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1">
       <c r="A47" s="13">
         <v>4</v>
       </c>
@@ -1134,9 +1300,14 @@
         <f>C40</f>
         <v>30</v>
       </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>assertEquals(30, t.getPreu(4,59),0.009);</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1146,7 +1317,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1158,7 +1329,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
